--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Leo\GitHub\LearnCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GitHub\LearnCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,15 +38,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>251/447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间\学习时长\进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,11 +126,19 @@
     <t>《设计模式：可复用面向对象软件的基础》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256/447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,6 +486,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,18 +505,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -804,14 +806,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -822,25 +824,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -849,166 +851,166 @@
       <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26"/>
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="25">
+        <v>6</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26"/>
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="26"/>
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="14" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
-        <v>6</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
-        <v>8</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="C25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>256/447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278/447</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +494,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,14 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,10 +809,11 @@
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -812,8 +824,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -822,27 +834,36 @@
       <c r="C2" s="9">
         <v>43123</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+      <c r="D2" s="28">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -850,22 +871,22 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25"/>
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -873,21 +894,21 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="25">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -895,22 +916,22 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
       <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -918,22 +939,22 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
       <c r="B16" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -942,21 +963,21 @@
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -965,21 +986,21 @@
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>8</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -988,14 +1009,14 @@
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="26"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="14" t="s">
         <v>5</v>
       </c>

--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>《Python核心编程（第3版）》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间\学习时长\进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,8 +75,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>《Head First 设计模式》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Effective Java中文版（第2版）》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Java并发编程实战》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《深入理解JAVA虚拟机 JVM高级特性与最佳实践(第2版》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《设计模式：可复用面向对象软件的基础》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256/477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278/477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343/477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>书名（</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>书名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -107,39 +167,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《Head First 设计模式》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Effective Java中文版（第2版）》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Java并发编程实战》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《深入理解JAVA虚拟机 JVM高级特性与最佳实践(第2版》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《设计模式：可复用面向对象软件的基础》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256/447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>278/447</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间\学习时长\进度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝色背景为节假日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +269,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -485,15 +565,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,7 +592,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,23 +889,23 @@
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
+      <c r="B1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -834,36 +914,45 @@
       <c r="C2" s="9">
         <v>43123</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="19">
         <v>43124</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="E2" s="19">
+        <v>43130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -871,154 +960,154 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="25"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>6</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20">
         <v>8</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="6" t="s">
+      <c r="B23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
-        <v>6</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
-        <v>7</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
-        <v>8</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="C25" s="11"/>
     </row>

--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,14 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345/447</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,6 +579,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,12 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,23 +897,23 @@
     <col min="1" max="1" width="4.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="4" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -920,9 +928,12 @@
       <c r="E2" s="19">
         <v>43130</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="F2" s="19">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -935,9 +946,12 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -950,9 +964,12 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26">
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -960,22 +977,22 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -983,21 +1000,21 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1005,22 +1022,22 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1028,22 +1045,22 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
       <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="20">
+      <c r="A17" s="22">
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1052,21 +1069,21 @@
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20">
+      <c r="A20" s="22">
         <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1075,21 +1092,21 @@
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20">
+      <c r="A23" s="22">
         <v>8</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1098,14 +1115,14 @@
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="14" t="s">
         <v>4</v>
       </c>

--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GitHub\LearnCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Leo\GitHub\LearnCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,14 +219,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>345/447</t>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>345/477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360/477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>374/477</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,13 +302,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -518,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,10 +923,11 @@
     <col min="2" max="2" width="36.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
     <col min="4" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="7" max="8" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -912,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -931,8 +957,14 @@
       <c r="F2" s="19">
         <v>43131</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="19">
+        <v>43134</v>
+      </c>
+      <c r="H2" s="29">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -949,8 +981,14 @@
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -965,10 +1003,16 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>2</v>
       </c>
@@ -977,21 +1021,21 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -1000,20 +1044,20 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1022,21 +1066,21 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -1045,14 +1089,14 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
       <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24"/>
       <c r="B16" s="14" t="s">
         <v>4</v>

--- a/技术书籍学习进度表.xlsx
+++ b/技术书籍学习进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Leo\GitHub\LearnCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\GitHub\LearnCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +55,6 @@
   </si>
   <si>
     <t>时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>时间：2018/1/1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2018/2/10</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,11 +221,36 @@
     <t>374/477</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>只做入门，其他不进行深入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>时间：2018/1/1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018/2/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,6 +615,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -927,19 +935,19 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -960,60 +968,63 @@
       <c r="G2" s="19">
         <v>43134</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="22">
         <v>43135</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1021,22 +1032,22 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1044,129 +1055,129 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
       <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22">
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
       <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
       <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22">
+      <c r="A20" s="23">
         <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>8</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="14" t="s">
         <v>4</v>
       </c>
